--- a/UserList.xlsx
+++ b/UserList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YATHI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YATHI\eclipse-workspace\ActiTime_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -35,6 +35,12 @@
     <t>Email</t>
   </si>
   <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
     <t>Usha</t>
   </si>
   <si>
@@ -50,7 +56,10 @@
     <t>Rai</t>
   </si>
   <si>
-    <t>usha.matad@rocketmail.com</t>
+    <t>usha.matad@gmail.com</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
 </sst>
 </file>
@@ -379,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,27 +406,36 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/UserList.xlsx
+++ b/UserList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>First Name</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Department</t>
-  </si>
-  <si>
-    <t>Quality Control</t>
   </si>
   <si>
     <t>Usha</t>
@@ -412,30 +409,27 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
